--- a/biology/Médecine/Sensorium/Sensorium.xlsx
+++ b/biology/Médecine/Sensorium/Sensorium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sensorium désigne la somme des perceptions d’un organisme et le siège de la sensation, à partir duquel le sujet expérimente et interprète les environnements dans lesquels il vit. Dans les domaines de la médecine, de la psychologie et de la physiologie, il désigne le caractère unique et changeant de l’ensemble de l’environnement sensoriel perçu par un individu. Cela inclut la sensation, la perception et l’interprétation de l’information sur le monde autour de nous au moyen des facultés de l’esprit, tels que les sens, la perception phénoménale et psychologique, la cognition et l’intelligence.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique du concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XXe siècle, le sensorium est devenu un élément fondamental de la théorie des médias développée par Marshall McLuhan, Edmund Carpenter et Walter J. Ong (Ong, 1991).
 Walter Ong ébauche l’historique de cette notion dans ‘’The Presence of the Word’’ (1967). Il rappelle que les poètes symbolistes français étaient fortement intéressés aux phénomènes de transposition des sens et de synesthésie, attribuant des couleurs à des sons, comme l’ont fait Baudelaire et Mallarmé[n 1]. Il signale aussi l’apport des philosophes, notamment Bergson avec son ‘’Essai sur les données immédiates de la conscience’’, et les travaux subséquents de Louis Lavelle et Jean Nogué. Il rattache vaguement la notion de sensorium aux travaux de la psychanalyse, de la linguistique, des psychologues comme Jean Piaget et Jerome Bruner, ainsi que nombre de phénoménologues.
-Dans Modes of thought, publié en 1938, Whitehead est un des premiers à attirer l’attention sur les effets que les changements dans les médias de communication produisent sur le sensorium, sans toutefois utiliser ce terme[1].
+Dans Modes of thought, publié en 1938, Whitehead est un des premiers à attirer l’attention sur les effets que les changements dans les médias de communication produisent sur le sensorium, sans toutefois utiliser ce terme.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Rapports entre les sens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">McLuhan, tout comme son mentor Harold Innis, considère que les médias sont biaisés en fonction de leur rapport au temps et à l’espace. Il attachait une importance particulière à ce qu’il appelait le sensorium, ou les effets des médias sur nos sens, selon l’hypothèse que les médias nous affectent en modifiant les rapports entre les sens. Par exemple, l’alphabet donne de l’importance au sens de la vue, ce qui a pour effet de nous entraîner à penser de façon linéaire et objective. L’alphabet, en tant que média, a donc pour effet de réorganiser la façon dont, collectivement et individuellement, nous percevons et comprenons notre environnement.
-Examinant les variations du sensorium dans divers contextes socio-historiques, ces théoriciens suggèrent que les membres d’une culture expérimentent et interprètent le monde différemment en fonction des rapports spécifiques entre les sens en vigueur dans cette culture[2]. Ong étudie ainsi la relation du sensorium avec la religion et sa configuration dans la tradition judéo-chrétienne, où est affirmée la prépondérance du verbe[3].
-Des travaux plus récents ont toutefois montré que des individus peuvent développer des sensoria particuliers qui échappent aux normes de leur culture d’origine, et cela même dans le cas de l’histoire de l’odorat dans le monde occidental, où ce sens est supprimé ou largement ignoré[4].
+Examinant les variations du sensorium dans divers contextes socio-historiques, ces théoriciens suggèrent que les membres d’une culture expérimentent et interprètent le monde différemment en fonction des rapports spécifiques entre les sens en vigueur dans cette culture. Ong étudie ainsi la relation du sensorium avec la religion et sa configuration dans la tradition judéo-chrétienne, où est affirmée la prépondérance du verbe.
+Des travaux plus récents ont toutefois montré que des individus peuvent développer des sensoria particuliers qui échappent aux normes de leur culture d’origine, et cela même dans le cas de l’histoire de l’odorat dans le monde occidental, où ce sens est supprimé ou largement ignoré.
 Cette interaction entre diverses façons de concevoir le monde peut être comparée à l’expérience de la synesthésie, dans laquelle la stimulation d’un sens entraîne une perception par un autre sens, apparemment sans liaison avec le premier, comme chez les musiciens qui peuvent goûter les intervalles entre les notes (Beeli et al., 2005) ou les artistes qui peuvent sentir les couleurs. Nombre de personnes qui ont perdu l’usage d’un sens développent un sensorium dans lequel les sens qu’ils possèdent acquièrent une part prépondérante. Souvent, une personne aveugle ou sourde développe un effet compensatoire, grâce auquel son sens du toucher ou de l’odorat devient plus aiguisé, modifiant la façon dont elle perçoit et interprète le monde. On en trouve des exemples particulièrement éloquents chez les enfants sauvages ou dont la petite enfance a été marquée par des abus, de la négligence ou un environnement non humain, ce qui a pour effet d’intensifier et de minimiser les capacités perceptives (Classen, 1991).
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Développement de sensoria uniques dans les cultures et les individus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces exemples illustrent le côté socialement acquis de la sensation et de la perception. Un sensorium "normal" et un sensorium synesthésique diffèrent en fonction de la distribution, de la connexion et de l’interaction entre les divers organes sensoriels. Un individu synesthète a simplement développé un ensemble d’habiletés, tant sensorielles que cognitives et interprétatives, qui lui donnent une unique compréhension du monde (Beeli et al., 2005). Le sensorium est la résultante des environnements physique, biologique, social et culturel d’un organisme individuel et de ses relations en tant qu’être dans le monde.
 Ce qui est considéré, à partir d’une perspective donnée, comme un étrange brouillage des sensations l'est, à partir d'une autre perspective, comme une façon normale et naturelle de percevoir le monde. Et, de fait, beaucoup d’individus et de cultures développent des sensoria fondamentalement différents de la modalité visio-centrique propre à la grande majorité des sciences et cultures occidentales. Le point de vue d’un individu originaire de Russie est éclairant à cet égard :
@@ -613,7 +631,9 @@
           <t>Écologie sensorielle et anthropologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces intuitions ont servi de déclencheur au champ de recherche en anthropologie sensorielle, qui cherche à comprendre les autres cultures à partir de l’organisation particulière de leur sensorium. Des anthropologues comme Paul Stoller (1989) et Michael Jackson (1983, 1989) ont centré leur critique sur l’hégémonie du visuel et du textuel dans les sciences sociales. Ils plaident de façon convaincante en faveur d’une compréhension et d’une analyse qui soient incarnées et attentives au contexte unique du sensorium de ceux qu’on cherche à comprendre.
 Un champ de recherche complémentaire est celui de l’écologie sensorielle ou perceptive, qui vise à comprendre les systèmes sensoriels et interprétatifs spécifiques que développe tout organisme en fonction de l’écosystème dans lequel il vit et auquel il doit s’adapter. Un chercheur important dans ce domaine est le psychologue James J. Gibson, qui a publié nombre de travaux étudiant les sens comme des systèmes de perception holistiques et intégrés, qui font preuve d’un comportement réfléchi plutôt que de servir simplement de canal délivrant des informations en vue d’un traitement cognitif, ainsi qu’on le suppose dans la psychologie ou la philosophie de la perception de type représentationnel (1966, 1979). Des systèmes perceptifs détectent les possibilités dans les objets du monde, dirigeant leur attention en vue d’obtenir de l’information sur un objet en fonction des usages possibles qu’il offre à un organisme.
@@ -646,7 +666,9 @@
           <t>Sensorium nébuleux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sensorium nébuleux est un état médical caractérisé par une inaptitude à penser clairement ou à se concentrer. Cet état est associé à une grande variété de causes, allant de l’absorption de drogues à des états pathogènes dus à la maladie ou à des déficiences en minéraux.
 </t>
